--- a/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Estudios-trans_orig.xlsx
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2607,7 +2607,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana (tasa de respuesta: 93,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Estudios-trans_orig.xlsx
@@ -734,32 +734,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>82702</t>
+          <t>75127</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>79646</t>
+          <t>72853</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>84943</t>
+          <t>77008</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,69%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>87,33%</t>
+          <t>88,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>93,14%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -769,32 +769,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>116448</t>
+          <t>107158</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>113242</t>
+          <t>104296</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>119285</t>
+          <t>109536</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>91,04%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>88,53%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>93,26%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -804,32 +804,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>199150</t>
+          <t>182285</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>194998</t>
+          <t>178661</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>202800</t>
+          <t>185246</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>89,0%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>92,56%</t>
+          <t>92,34%</t>
         </is>
       </c>
     </row>
@@ -847,32 +847,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6134</t>
+          <t>5498</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4230</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8973</t>
+          <t>7541</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,73%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -882,32 +882,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7551</t>
+          <t>6994</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5216</t>
+          <t>5089</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>10492</t>
+          <t>9653</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,9%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,2%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -917,32 +917,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>13685</t>
+          <t>12492</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>10589</t>
+          <t>9932</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>17313</t>
+          <t>15653</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>6,25%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,83%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -960,32 +960,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2361</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1249</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>4146</t>
+          <t>3860</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,59%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,37%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,55%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -995,67 +995,67 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3913</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2601</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>6224</t>
+          <t>5584</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,06%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
+          <t>2,04%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>4,74%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>5837</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>4067</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>7925</t>
+        </is>
+      </c>
+      <c r="U6" s="2" t="inlineStr">
+        <is>
+          <t>2,91%</t>
+        </is>
+      </c>
+      <c r="V6" s="2" t="inlineStr">
+        <is>
           <t>2,03%</t>
         </is>
       </c>
-      <c r="P6" s="2" t="inlineStr">
-        <is>
-          <t>4,87%</t>
-        </is>
-      </c>
-      <c r="Q6" s="2" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="R6" s="2" t="inlineStr">
-        <is>
-          <t>6274</t>
-        </is>
-      </c>
-      <c r="S6" s="2" t="inlineStr">
-        <is>
-          <t>4389</t>
-        </is>
-      </c>
-      <c r="T6" s="2" t="inlineStr">
-        <is>
-          <t>8702</t>
-        </is>
-      </c>
-      <c r="U6" s="2" t="inlineStr">
-        <is>
-          <t>2,86%</t>
-        </is>
-      </c>
-      <c r="V6" s="2" t="inlineStr">
-        <is>
-          <t>2,0%</t>
-        </is>
-      </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>3,97%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -1073,17 +1073,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>91197</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1108,17 +1108,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>127912</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1143,17 +1143,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>219109</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1190,32 +1190,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>421028</t>
+          <t>428323</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>415265</t>
+          <t>423117</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>426487</t>
+          <t>433448</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,59%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,01%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1225,32 +1225,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>399051</t>
+          <t>414945</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>393319</t>
+          <t>410086</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>404325</t>
+          <t>419793</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>89,52%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>92,03%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1260,32 +1260,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>820079</t>
+          <t>843267</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>811874</t>
+          <t>835956</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>827838</t>
+          <t>849785</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>90,83%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>89,92%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>91,69%</t>
+          <t>92,66%</t>
         </is>
       </c>
     </row>
@@ -1303,32 +1303,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>29181</t>
+          <t>26494</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24043</t>
+          <t>22020</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>33737</t>
+          <t>30955</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,3%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>5,19%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>7,28%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1338,32 +1338,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25652</t>
+          <t>20760</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>21381</t>
+          <t>17198</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>30437</t>
+          <t>24852</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,84%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1373,32 +1373,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>54833</t>
+          <t>47254</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>48367</t>
+          <t>42291</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>61450</t>
+          <t>53276</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>6,07%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,81%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -1416,69 +1416,69 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13299</t>
+          <t>13398</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10232</t>
+          <t>10474</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17211</t>
+          <t>17063</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,87%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,21%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
+          <t>3,64%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>13217</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>10421</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>16677</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>2,94%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>2,32%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
           <t>3,71%</t>
         </is>
       </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>14647</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>11297</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>18135</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>3,33%</t>
-        </is>
-      </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>2,57%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>4,13%</t>
-        </is>
-      </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>150</t>
@@ -1486,32 +1486,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>27946</t>
+          <t>26616</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>23882</t>
+          <t>22232</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>33320</t>
+          <t>31348</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -1529,17 +1529,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>463507</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1564,17 +1564,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>439350</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1599,17 +1599,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>902857</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1646,32 +1646,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>140292</t>
+          <t>169704</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>136367</t>
+          <t>165710</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>143454</t>
+          <t>172735</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>90,36%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>92,4%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1681,32 +1681,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>183120</t>
+          <t>223867</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>179200</t>
+          <t>219754</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>186467</t>
+          <t>227336</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>89,66%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>93,29%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1716,32 +1716,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>323412</t>
+          <t>393570</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>318271</t>
+          <t>388104</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>327927</t>
+          <t>398102</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>89,62%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>93,44%</t>
         </is>
       </c>
     </row>
@@ -1759,32 +1759,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10320</t>
+          <t>10203</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7619</t>
+          <t>7603</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13831</t>
+          <t>13219</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1794,32 +1794,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12403</t>
+          <t>12873</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9578</t>
+          <t>9680</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16037</t>
+          <t>16503</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,79%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>8,02%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1829,32 +1829,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>22723</t>
+          <t>23076</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>18859</t>
+          <t>19053</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>27304</t>
+          <t>28174</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>6,4%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>5,31%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>7,69%</t>
+          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -1872,32 +1872,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4643</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2948</t>
+          <t>2970</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6781</t>
+          <t>7116</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>4,37%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1907,32 +1907,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4353</t>
+          <t>4715</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>2749</t>
+          <t>3088</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>6495</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1942,32 +1942,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>8995</t>
+          <t>9392</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>6688</t>
+          <t>7061</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>11984</t>
+          <t>12763</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1985,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>155255</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2020,17 +2020,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>199876</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2055,17 +2055,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>355131</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2102,32 +2102,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>644022</t>
+          <t>673153</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>636214</t>
+          <t>665771</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>650481</t>
+          <t>679761</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>90,71%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>89,61%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>91,62%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2137,67 +2137,67 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>698619</t>
+          <t>745971</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>690914</t>
+          <t>739433</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>705143</t>
+          <t>752359</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>91,07%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
+          <t>93,08%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>7831</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>1419124</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>1410123</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>1428468</t>
+        </is>
+      </c>
+      <c r="U16" s="2" t="inlineStr">
+        <is>
           <t>91,92%</t>
         </is>
       </c>
-      <c r="Q16" s="2" t="inlineStr">
-        <is>
-          <t>7831</t>
-        </is>
-      </c>
-      <c r="R16" s="2" t="inlineStr">
-        <is>
-          <t>1342641</t>
-        </is>
-      </c>
-      <c r="S16" s="2" t="inlineStr">
-        <is>
-          <t>1332731</t>
-        </is>
-      </c>
-      <c r="T16" s="2" t="inlineStr">
-        <is>
-          <t>1352208</t>
-        </is>
-      </c>
-      <c r="U16" s="2" t="inlineStr">
-        <is>
-          <t>90,9%</t>
-        </is>
-      </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>92,53%</t>
         </is>
       </c>
     </row>
@@ -2215,32 +2215,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>45635</t>
+          <t>42195</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>39439</t>
+          <t>37017</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>51526</t>
+          <t>48525</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>7,26%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2250,32 +2250,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>45606</t>
+          <t>40627</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>39960</t>
+          <t>35679</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51387</t>
+          <t>46246</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>5,21%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2285,32 +2285,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>91241</t>
+          <t>82822</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>83437</t>
+          <t>75537</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>99854</t>
+          <t>90915</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>6,18%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>5,65%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
@@ -2328,32 +2328,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>20302</t>
+          <t>20174</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16812</t>
+          <t>16676</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24866</t>
+          <t>24964</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,5%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2363,32 +2363,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>22913</t>
+          <t>21670</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>18949</t>
+          <t>18125</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>27462</t>
+          <t>26208</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,47%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2398,32 +2398,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>43215</t>
+          <t>41845</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>37401</t>
+          <t>36050</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>49173</t>
+          <t>47568</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,93%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -2441,17 +2441,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>709959</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2476,17 +2476,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>767138</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2511,17 +2511,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1477097</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">

--- a/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE_INDUSTRIA-Estudios-trans_orig.xlsx
@@ -7,8 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="C.Valenciana" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="País Vasco" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -544,7 +544,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco (tasa de respuesta: 100,0%)</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana (tasa de respuesta: 93,67%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -729,107 +729,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>461</t>
+          <t>529</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>75127</t>
+          <t>204356</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>72853</t>
+          <t>199731</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>77008</t>
+          <t>207239</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>90,82%</t>
+          <t>97,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>88,07%</t>
+          <t>94,82%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>98,38%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>694</t>
+          <t>574</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>107158</t>
+          <t>240088</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>104296</t>
+          <t>234130</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>109536</t>
+          <t>243565</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>90,9%</t>
+          <t>96,33%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>93,94%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>92,91%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1155</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>182285</t>
+          <t>444445</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>178661</t>
+          <t>437494</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>185246</t>
+          <t>449246</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>90,86%</t>
+          <t>96,64%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>89,06%</t>
+          <t>95,13%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>97,69%</t>
         </is>
       </c>
     </row>
@@ -842,107 +842,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5498</t>
+          <t>4963</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3919</t>
+          <t>2339</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>7541</t>
+          <t>9463</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,65%</t>
+          <t>2,36%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>1,11%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,12%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>40</t>
+          <t>15</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>6994</t>
+          <t>7017</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>5089</t>
+          <t>4032</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>9653</t>
+          <t>12534</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,93%</t>
+          <t>2,82%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,32%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>8,19%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>75</t>
+          <t>27</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>12492</t>
+          <t>11980</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>9932</t>
+          <t>7852</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>15653</t>
+          <t>17922</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>6,23%</t>
+          <t>2,6%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>1,71%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>3,9%</t>
         </is>
       </c>
     </row>
@@ -955,107 +955,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>2099</t>
+          <t>1330</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1089</t>
+          <t>465</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3860</t>
+          <t>3420</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>2,54%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1,32%</t>
+          <t>0,22%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>4,67%</t>
+          <t>1,62%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>4</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>3738</t>
+          <t>2135</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>2408</t>
+          <t>642</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5584</t>
+          <t>5773</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>3,17%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>2,04%</t>
+          <t>0,26%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>4,74%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>8</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>5837</t>
+          <t>3465</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>4067</t>
+          <t>1517</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>7925</t>
+          <t>7394</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>0,75%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>2,03%</t>
+          <t>0,33%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>1,61%</t>
         </is>
       </c>
     </row>
@@ -1068,22 +1068,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>508</t>
+          <t>545</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>82724</t>
+          <t>210649</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1103,22 +1103,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>758</t>
+          <t>593</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>117890</t>
+          <t>249240</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1138,22 +1138,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1266</t>
+          <t>1138</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>200614</t>
+          <t>459889</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1185,107 +1185,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2422</t>
+          <t>1478</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>428323</t>
+          <t>768585</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>423117</t>
+          <t>759608</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>433448</t>
+          <t>776077</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>96,27%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>90,37%</t>
+          <t>95,15%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>92,57%</t>
+          <t>97,21%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>2306</t>
+          <t>1315</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>414945</t>
+          <t>735662</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>410086</t>
+          <t>725744</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>419793</t>
+          <t>742925</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>92,43%</t>
+          <t>96,12%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>91,35%</t>
+          <t>94,83%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>97,07%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>4728</t>
+          <t>2793</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>843267</t>
+          <t>1504247</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>835956</t>
+          <t>1492437</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>849785</t>
+          <t>1514850</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>91,95%</t>
+          <t>96,2%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>95,44%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>96,88%</t>
         </is>
       </c>
     </row>
@@ -1298,107 +1298,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26494</t>
+          <t>26079</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22020</t>
+          <t>19379</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>30955</t>
+          <t>34100</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>5,66%</t>
+          <t>3,27%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,7%</t>
+          <t>2,43%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>4,27%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>135</t>
+          <t>47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>20760</t>
+          <t>26584</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17198</t>
+          <t>19196</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>24852</t>
+          <t>35643</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,62%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>2,51%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>4,66%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>295</t>
+          <t>101</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>47254</t>
+          <t>52662</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>42291</t>
+          <t>42116</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>53276</t>
+          <t>64248</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>5,15%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>2,69%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>4,11%</t>
         </is>
       </c>
     </row>
@@ -1411,107 +1411,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>74</t>
+          <t>9</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>13398</t>
+          <t>3682</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>10474</t>
+          <t>1695</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17063</t>
+          <t>7015</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,21%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,64%</t>
+          <t>0,88%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>76</t>
+          <t>5</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>13217</t>
+          <t>3074</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>10421</t>
+          <t>1103</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>16677</t>
+          <t>7556</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>2,94%</t>
+          <t>0,4%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>0,14%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>0,99%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>14</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>26616</t>
+          <t>6756</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>22232</t>
+          <t>3825</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>31348</t>
+          <t>11568</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>2,9%</t>
+          <t>0,43%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>2,42%</t>
+          <t>0,24%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>3,42%</t>
+          <t>0,74%</t>
         </is>
       </c>
     </row>
@@ -1524,22 +1524,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2656</t>
+          <t>1541</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>798346</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>798346</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>468215</t>
+          <t>798346</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1559,22 +1559,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2517</t>
+          <t>1367</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>765319</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>765319</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>448923</t>
+          <t>765319</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1594,22 +1594,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>5173</t>
+          <t>2908</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1563665</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1563665</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>917137</t>
+          <t>1563665</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1641,107 +1641,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>835</t>
+          <t>617</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>169704</t>
+          <t>355473</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>165710</t>
+          <t>349007</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>172735</t>
+          <t>361312</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>91,94%</t>
+          <t>95,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>89,77%</t>
+          <t>94,19%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>93,58%</t>
+          <t>97,51%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1113</t>
+          <t>654</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>223867</t>
+          <t>387759</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>219754</t>
+          <t>378678</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>227336</t>
+          <t>393502</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>92,72%</t>
+          <t>95,7%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>91,01%</t>
+          <t>93,46%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>97,12%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1948</t>
+          <t>1271</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>393570</t>
+          <t>743233</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>388104</t>
+          <t>733288</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>398102</t>
+          <t>751642</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>92,38%</t>
+          <t>95,82%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>91,1%</t>
+          <t>94,53%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>96,9%</t>
         </is>
       </c>
     </row>
@@ -1754,107 +1754,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>10203</t>
+          <t>13756</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>7603</t>
+          <t>8433</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>13219</t>
+          <t>20628</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,53%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>4,12%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>7,16%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>25</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>12873</t>
+          <t>16390</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>9680</t>
+          <t>10745</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>16503</t>
+          <t>25711</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>5,33%</t>
+          <t>4,05%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>2,65%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,83%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>49</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>23076</t>
+          <t>30146</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>19053</t>
+          <t>22322</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>28174</t>
+          <t>39901</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>5,42%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>4,47%</t>
+          <t>2,88%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>6,61%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -1867,107 +1867,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>2</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4677</t>
+          <t>1294</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2970</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>4822</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>2,53%</t>
+          <t>0,35%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>3,86%</t>
+          <t>1,3%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>2</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>4715</t>
+          <t>1022</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>3088</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>7060</t>
+          <t>3901</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>1,95%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,28%</t>
+          <t>0,0%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>2,92%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>4</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>9392</t>
+          <t>2316</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>7061</t>
+          <t>862</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>12763</t>
+          <t>6669</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>0,3%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>1,66%</t>
+          <t>0,11%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>0,86%</t>
         </is>
       </c>
     </row>
@@ -1980,22 +1980,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>643</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>184584</t>
+          <t>370523</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2015,22 +2015,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>1209</t>
+          <t>681</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>241455</t>
+          <t>405171</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2050,22 +2050,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>2122</t>
+          <t>1324</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>426039</t>
+          <t>775695</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2097,107 +2097,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>3718</t>
+          <t>2624</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>673153</t>
+          <t>1328414</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>665771</t>
+          <t>1315787</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>679761</t>
+          <t>1337652</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>91,52%</t>
+          <t>96,3%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>95,38%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>92,42%</t>
+          <t>96,97%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4113</t>
+          <t>2543</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>745971</t>
+          <t>1363510</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>739433</t>
+          <t>1348815</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>752359</t>
+          <t>1373770</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>96,04%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>91,48%</t>
+          <t>95,01%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>96,76%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>7831</t>
+          <t>5167</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>1419124</t>
+          <t>2691924</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>1410123</t>
+          <t>2673643</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>1428468</t>
+          <t>2707056</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>91,92%</t>
+          <t>96,17%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>91,34%</t>
+          <t>95,51%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>92,53%</t>
+          <t>96,71%</t>
         </is>
       </c>
     </row>
@@ -2210,107 +2210,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>249</t>
+          <t>90</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>42195</t>
+          <t>44798</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>37017</t>
+          <t>36026</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>48525</t>
+          <t>56350</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>5,74%</t>
+          <t>3,25%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>2,61%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>6,6%</t>
+          <t>4,08%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>245</t>
+          <t>87</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>40627</t>
+          <t>49991</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>35679</t>
+          <t>39838</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>46246</t>
+          <t>63808</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>4,41%</t>
+          <t>2,81%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>4,49%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>494</t>
+          <t>177</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>82822</t>
+          <t>94788</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>75537</t>
+          <t>80037</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>90915</t>
+          <t>111327</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>4,89%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>5,89%</t>
+          <t>3,98%</t>
         </is>
       </c>
     </row>
@@ -2323,107 +2323,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>15</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>20174</t>
+          <t>6306</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16676</t>
+          <t>3429</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>24964</t>
+          <t>10441</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>0,46%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>2,27%</t>
+          <t>0,25%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>0,76%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>126</t>
+          <t>11</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>21670</t>
+          <t>6230</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>18125</t>
+          <t>3292</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>26208</t>
+          <t>11491</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>2,68%</t>
+          <t>0,44%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>2,24%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,24%</t>
+          <t>0,81%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>236</t>
+          <t>26</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>41845</t>
+          <t>12536</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>36050</t>
+          <t>8595</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>47568</t>
+          <t>19231</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,71%</t>
+          <t>0,45%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>2,34%</t>
+          <t>0,31%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,08%</t>
+          <t>0,69%</t>
         </is>
       </c>
     </row>
@@ -2436,22 +2436,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4077</t>
+          <t>2729</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1379518</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1379518</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>735523</t>
+          <t>1379518</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2471,22 +2471,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4484</t>
+          <t>2641</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1419730</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1419730</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>808268</t>
+          <t>1419730</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2506,22 +2506,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>8561</t>
+          <t>5370</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2799249</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2799249</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>1543791</t>
+          <t>2799249</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2607,7 +2607,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica procedente de industrial en C.Valenciana (tasa de respuesta: 93,67%)</t>
+          <t>Percepción contaminación atmosférica procedente de industrial en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2792,107 +2792,107 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>461</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>204356</t>
+          <t>75127</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>199731</t>
+          <t>72853</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>207239</t>
+          <t>77008</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>97,01%</t>
+          <t>90,82%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>88,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>98,38%</t>
+          <t>93,09%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>574</t>
+          <t>694</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>240088</t>
+          <t>107158</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>234130</t>
+          <t>104296</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>243565</t>
+          <t>109536</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>96,33%</t>
+          <t>90,9%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>93,94%</t>
+          <t>88,47%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>97,72%</t>
+          <t>92,91%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>1155</t>
         </is>
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>444445</t>
+          <t>182285</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>437494</t>
+          <t>178661</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>449246</t>
+          <t>185246</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>90,86%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>95,13%</t>
+          <t>89,06%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>97,69%</t>
+          <t>92,34%</t>
         </is>
       </c>
     </row>
@@ -2905,107 +2905,107 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4963</t>
+          <t>5498</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2339</t>
+          <t>3919</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>9463</t>
+          <t>7541</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>2,36%</t>
+          <t>6,65%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>40</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7017</t>
+          <t>6994</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>4032</t>
+          <t>5089</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12534</t>
+          <t>9653</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>2,82%</t>
+          <t>5,93%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>4,32%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>5,03%</t>
+          <t>8,19%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>27</t>
+          <t>75</t>
         </is>
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>11980</t>
+          <t>12492</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>7852</t>
+          <t>9932</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>17922</t>
+          <t>15653</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>2,6%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>1,71%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>7,8%</t>
         </is>
       </c>
     </row>
@@ -3018,107 +3018,107 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>1330</t>
+          <t>2099</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>465</t>
+          <t>1089</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>3420</t>
+          <t>3860</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>2,54%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,22%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,62%</t>
+          <t>4,67%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>24</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>2135</t>
+          <t>3738</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>642</t>
+          <t>2408</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>5773</t>
+          <t>5584</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,26%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>4,74%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>36</t>
         </is>
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>3465</t>
+          <t>5837</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>1517</t>
+          <t>4067</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>7394</t>
+          <t>7925</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,75%</t>
+          <t>2,91%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>3,95%</t>
         </is>
       </c>
     </row>
@@ -3131,22 +3131,22 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>545</t>
+          <t>508</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>210649</t>
+          <t>82724</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -3166,22 +3166,22 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>593</t>
+          <t>758</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>249240</t>
+          <t>117890</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -3201,22 +3201,22 @@
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>1138</t>
+          <t>1266</t>
         </is>
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>459889</t>
+          <t>200614</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -3248,107 +3248,107 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1478</t>
+          <t>2422</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>768585</t>
+          <t>428323</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>759608</t>
+          <t>423117</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>776077</t>
+          <t>433448</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>96,27%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>95,15%</t>
+          <t>90,37%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>97,21%</t>
+          <t>92,57%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>1315</t>
+          <t>2306</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>735662</t>
+          <t>414945</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>725744</t>
+          <t>410086</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>742925</t>
+          <t>419793</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,12%</t>
+          <t>92,43%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,83%</t>
+          <t>91,35%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>97,07%</t>
+          <t>93,51%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
         <is>
-          <t>2793</t>
+          <t>4728</t>
         </is>
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>1504247</t>
+          <t>843267</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>1492437</t>
+          <t>835956</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>1514850</t>
+          <t>849785</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>96,2%</t>
+          <t>91,95%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>95,44%</t>
+          <t>91,15%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>96,88%</t>
+          <t>92,66%</t>
         </is>
       </c>
     </row>
@@ -3361,107 +3361,107 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>54</t>
+          <t>160</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26079</t>
+          <t>26494</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19379</t>
+          <t>22020</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34100</t>
+          <t>30955</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>2,43%</t>
+          <t>4,7%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,27%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>47</t>
+          <t>135</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>26584</t>
+          <t>20760</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>19196</t>
+          <t>17198</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>35643</t>
+          <t>24852</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,47%</t>
+          <t>4,62%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>2,51%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>4,66%</t>
+          <t>5,54%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
         <is>
-          <t>101</t>
+          <t>295</t>
         </is>
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>52662</t>
+          <t>47254</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>42116</t>
+          <t>42291</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>64248</t>
+          <t>53276</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>3,37%</t>
+          <t>5,15%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>2,69%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -3474,107 +3474,107 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9</t>
+          <t>74</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>3682</t>
+          <t>13398</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1695</t>
+          <t>10474</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>7015</t>
+          <t>17063</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,88%</t>
+          <t>3,64%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>76</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3074</t>
+          <t>13217</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1103</t>
+          <t>10421</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>7556</t>
+          <t>16677</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>2,94%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,14%</t>
+          <t>2,32%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>0,99%</t>
+          <t>3,71%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>150</t>
         </is>
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>6756</t>
+          <t>26616</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>3825</t>
+          <t>22232</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>11568</t>
+          <t>31348</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>2,9%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>2,42%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>3,42%</t>
         </is>
       </c>
     </row>
@@ -3587,22 +3587,22 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1541</t>
+          <t>2656</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>798346</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>798346</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>798346</t>
+          <t>468215</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -3622,22 +3622,22 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>1367</t>
+          <t>2517</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>765319</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>765319</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>765319</t>
+          <t>448923</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -3657,22 +3657,22 @@
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>2908</t>
+          <t>5173</t>
         </is>
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>1563665</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>1563665</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>1563665</t>
+          <t>917137</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -3704,107 +3704,107 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>617</t>
+          <t>835</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>355473</t>
+          <t>169704</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>349007</t>
+          <t>165710</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>361312</t>
+          <t>172735</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>95,94%</t>
+          <t>91,94%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>94,19%</t>
+          <t>89,77%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>97,51%</t>
+          <t>93,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>654</t>
+          <t>1113</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>387759</t>
+          <t>223867</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>378678</t>
+          <t>219754</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>393502</t>
+          <t>227336</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>95,7%</t>
+          <t>92,72%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>93,46%</t>
+          <t>91,01%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>97,12%</t>
+          <t>94,15%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
         <is>
-          <t>1271</t>
+          <t>1948</t>
         </is>
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>743233</t>
+          <t>393570</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>733288</t>
+          <t>388104</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>751642</t>
+          <t>398102</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>95,82%</t>
+          <t>92,38%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>91,1%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>96,9%</t>
+          <t>93,44%</t>
         </is>
       </c>
     </row>
@@ -3817,107 +3817,107 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>24</t>
+          <t>54</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13756</t>
+          <t>10203</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8433</t>
+          <t>7603</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>20628</t>
+          <t>13219</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>3,71%</t>
+          <t>5,53%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>2,28%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>5,57%</t>
+          <t>7,16%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>70</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>16390</t>
+          <t>12873</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>10745</t>
+          <t>9680</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>25711</t>
+          <t>16503</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>4,05%</t>
+          <t>5,33%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>2,65%</t>
+          <t>4,01%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>6,83%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
         <is>
-          <t>49</t>
+          <t>124</t>
         </is>
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>30146</t>
+          <t>23076</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>22322</t>
+          <t>19053</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>39901</t>
+          <t>28174</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>3,89%</t>
+          <t>5,42%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>2,88%</t>
+          <t>4,47%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>5,14%</t>
+          <t>6,61%</t>
         </is>
       </c>
     </row>
@@ -3930,107 +3930,107 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>24</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1294</t>
+          <t>4677</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2970</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>4822</t>
+          <t>7116</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,35%</t>
+          <t>2,53%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>1,3%</t>
+          <t>3,86%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>26</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1022</t>
+          <t>4715</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3088</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>3901</t>
+          <t>7060</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>1,95%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>1,28%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>0,96%</t>
+          <t>2,92%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>50</t>
         </is>
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>2316</t>
+          <t>9392</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>862</t>
+          <t>7061</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>6669</t>
+          <t>12763</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>0,3%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,11%</t>
+          <t>1,66%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>3,0%</t>
         </is>
       </c>
     </row>
@@ -4043,22 +4043,22 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>643</t>
+          <t>913</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>370523</t>
+          <t>184584</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -4078,22 +4078,22 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>681</t>
+          <t>1209</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>405171</t>
+          <t>241455</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -4113,22 +4113,22 @@
       </c>
       <c r="Q15" s="2" t="inlineStr">
         <is>
-          <t>1324</t>
+          <t>2122</t>
         </is>
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>775695</t>
+          <t>426039</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -4160,107 +4160,107 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>2624</t>
+          <t>3718</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>1328414</t>
+          <t>673153</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>1315787</t>
+          <t>665771</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>1337652</t>
+          <t>679761</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>96,3%</t>
+          <t>91,52%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>95,38%</t>
+          <t>90,52%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>96,97%</t>
+          <t>92,42%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>2543</t>
+          <t>4113</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>1363510</t>
+          <t>745971</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>1348815</t>
+          <t>739433</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>1373770</t>
+          <t>752359</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>96,04%</t>
+          <t>92,29%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>95,01%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>96,76%</t>
+          <t>93,08%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
         <is>
-          <t>5167</t>
+          <t>7831</t>
         </is>
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>2691924</t>
+          <t>1419124</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>2673643</t>
+          <t>1410123</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>2707056</t>
+          <t>1428468</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>96,17%</t>
+          <t>91,92%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>95,51%</t>
+          <t>91,34%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>96,71%</t>
+          <t>92,53%</t>
         </is>
       </c>
     </row>
@@ -4273,107 +4273,107 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>249</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>44798</t>
+          <t>42195</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36026</t>
+          <t>37017</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>56350</t>
+          <t>48525</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,25%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>4,08%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>87</t>
+          <t>245</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>49991</t>
+          <t>40627</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>39838</t>
+          <t>35679</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>63808</t>
+          <t>46246</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>2,81%</t>
+          <t>4,41%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
         <is>
-          <t>177</t>
+          <t>494</t>
         </is>
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>94788</t>
+          <t>82822</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>80037</t>
+          <t>75537</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>111327</t>
+          <t>90915</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>5,36%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>2,86%</t>
+          <t>4,89%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>5,89%</t>
         </is>
       </c>
     </row>
@@ -4386,107 +4386,107 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>110</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>6306</t>
+          <t>20174</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3429</t>
+          <t>16676</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>10441</t>
+          <t>24964</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,46%</t>
+          <t>2,74%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,76%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>126</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>6230</t>
+          <t>21670</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>3292</t>
+          <t>18125</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>11491</t>
+          <t>26208</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,44%</t>
+          <t>2,68%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,23%</t>
+          <t>2,24%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>0,81%</t>
+          <t>3,24%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
         <is>
-          <t>26</t>
+          <t>236</t>
         </is>
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>12536</t>
+          <t>41845</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>8595</t>
+          <t>36050</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>19231</t>
+          <t>47568</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>0,45%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,31%</t>
+          <t>2,34%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>0,69%</t>
+          <t>3,08%</t>
         </is>
       </c>
     </row>
@@ -4499,22 +4499,22 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>2729</t>
+          <t>4077</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1379518</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1379518</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1379518</t>
+          <t>735523</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -4534,22 +4534,22 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>2641</t>
+          <t>4484</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1419730</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>1419730</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>1419730</t>
+          <t>808268</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -4569,22 +4569,22 @@
       </c>
       <c r="Q19" s="2" t="inlineStr">
         <is>
-          <t>5370</t>
+          <t>8561</t>
         </is>
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>2799249</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>2799249</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>2799249</t>
+          <t>1543791</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
